--- a/python/Dose_Full_loadings_and_variance.xlsx
+++ b/python/Dose_Full_loadings_and_variance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>PC1</t>
   </si>
@@ -46,9 +46,6 @@
     <t>PC10</t>
   </si>
   <si>
-    <t>PC11</t>
-  </si>
-  <si>
     <t>Variance</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>T0</t>
-  </si>
-  <si>
-    <t>p</t>
   </si>
   <si>
     <t>c</t>
@@ -440,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,464 +471,390 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B2">
-        <v>0.2471147941019366</v>
+        <v>0.247114794101936</v>
       </c>
       <c r="C2">
-        <v>0.2198490312533226</v>
+        <v>0.2198490312533224</v>
       </c>
       <c r="D2">
-        <v>0.1452635910161094</v>
+        <v>0.1452635910161096</v>
       </c>
       <c r="E2">
         <v>0.1291491539145056</v>
       </c>
       <c r="F2">
-        <v>0.09973684282319578</v>
+        <v>0.09973684282319599</v>
       </c>
       <c r="G2">
-        <v>0.08393767474605915</v>
+        <v>0.08393767474605923</v>
       </c>
       <c r="H2">
-        <v>0.04257281868556199</v>
+        <v>0.04257281868556214</v>
       </c>
       <c r="I2">
-        <v>0.02782422853842444</v>
+        <v>0.02782422853842452</v>
       </c>
       <c r="J2">
-        <v>0.002510038702921221</v>
+        <v>0.002510038702921224</v>
       </c>
       <c r="K2">
-        <v>0.002041826217963195</v>
-      </c>
-      <c r="L2">
-        <v>6.240190245308083E-37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.002041826217963197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2080226275763969</v>
+        <v>0.2080226275764001</v>
       </c>
       <c r="C3">
-        <v>-0.1847828715377452</v>
+        <v>-0.1847828715377433</v>
       </c>
       <c r="D3">
         <v>-0.5494339884717935</v>
       </c>
       <c r="E3">
-        <v>5.551115123125783E-17</v>
+        <v>-0.5191523425117116</v>
       </c>
       <c r="F3">
-        <v>-0.5191523425117134</v>
+        <v>0.06359237830622445</v>
       </c>
       <c r="G3">
-        <v>0.06359237830622375</v>
+        <v>0.4755259602885007</v>
       </c>
       <c r="H3">
-        <v>0.4755259602884999</v>
+        <v>0.1473892835096143</v>
       </c>
       <c r="I3">
-        <v>0.1473892835096165</v>
+        <v>-0.2724512625799192</v>
       </c>
       <c r="J3">
-        <v>-0.2724512625799187</v>
+        <v>0.05223741145558222</v>
       </c>
       <c r="K3">
-        <v>0.05223741145558486</v>
-      </c>
-      <c r="L3">
-        <v>0.1494457974038207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1494457974038203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.2729721066969251</v>
+      </c>
+      <c r="C4">
+        <v>-0.4714321237015267</v>
+      </c>
+      <c r="D4">
+        <v>0.0251911324045581</v>
+      </c>
+      <c r="E4">
+        <v>-0.2582307091653381</v>
+      </c>
+      <c r="F4">
+        <v>-0.196603205457442</v>
+      </c>
+      <c r="G4">
+        <v>-0.3500026531798027</v>
+      </c>
+      <c r="H4">
+        <v>0.3555108682161222</v>
+      </c>
+      <c r="I4">
+        <v>0.2950800535154601</v>
+      </c>
+      <c r="J4">
+        <v>0.4636602863953425</v>
+      </c>
+      <c r="K4">
+        <v>0.2152313527071106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>-0.272972106696924</v>
-      </c>
-      <c r="C4">
-        <v>-0.471432123701527</v>
-      </c>
-      <c r="D4">
-        <v>0.02519113240456119</v>
-      </c>
-      <c r="E4">
-        <v>5.551115123125783E-17</v>
-      </c>
-      <c r="F4">
-        <v>-0.2582307091653356</v>
-      </c>
-      <c r="G4">
-        <v>-0.1966032054574425</v>
-      </c>
-      <c r="H4">
-        <v>-0.3500026531798056</v>
-      </c>
-      <c r="I4">
-        <v>0.3555108682161221</v>
-      </c>
-      <c r="J4">
-        <v>0.2950800535154615</v>
-      </c>
-      <c r="K4">
-        <v>0.4636602863953425</v>
-      </c>
-      <c r="L4">
-        <v>0.2152313527071098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>-0.6168921402363647</v>
+      </c>
+      <c r="C5">
+        <v>0.4394265385141694</v>
+      </c>
+      <c r="D5">
+        <v>-0.2560811353281108</v>
+      </c>
+      <c r="E5">
+        <v>0.1828259569118398</v>
+      </c>
+      <c r="F5">
+        <v>0.2482093144911764</v>
+      </c>
+      <c r="G5">
+        <v>-0.01182867154744688</v>
+      </c>
+      <c r="H5">
+        <v>0.325768650620212</v>
+      </c>
+      <c r="I5">
+        <v>-0.3219647954321655</v>
+      </c>
+      <c r="J5">
+        <v>0.2331816806440625</v>
+      </c>
+      <c r="K5">
+        <v>0.03791444960767276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>-0.616892140236362</v>
-      </c>
-      <c r="C5">
-        <v>0.4394265385141706</v>
-      </c>
-      <c r="D5">
-        <v>-0.2560811353281088</v>
-      </c>
-      <c r="E5">
-        <v>-0</v>
-      </c>
-      <c r="F5">
-        <v>0.1828259569118411</v>
-      </c>
-      <c r="G5">
-        <v>0.2482093144911791</v>
-      </c>
-      <c r="H5">
-        <v>-0.01182867154744882</v>
-      </c>
-      <c r="I5">
-        <v>0.325768650620214</v>
-      </c>
-      <c r="J5">
-        <v>-0.3219647954321648</v>
-      </c>
-      <c r="K5">
-        <v>0.233181680644065</v>
-      </c>
-      <c r="L5">
-        <v>0.03791444960767615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0.1546964291594872</v>
+      </c>
+      <c r="C6">
+        <v>0.1221077129414821</v>
+      </c>
+      <c r="D6">
+        <v>0.08430825064197785</v>
+      </c>
+      <c r="E6">
+        <v>0.198389037941586</v>
+      </c>
+      <c r="F6">
+        <v>0.4359508967545353</v>
+      </c>
+      <c r="G6">
+        <v>0.2404752018823947</v>
+      </c>
+      <c r="H6">
+        <v>-0.09735498951579825</v>
+      </c>
+      <c r="I6">
+        <v>0.3736523971335705</v>
+      </c>
+      <c r="J6">
+        <v>0.2040820726271882</v>
+      </c>
+      <c r="K6">
+        <v>0.6899764651111298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>0.1546964291594899</v>
-      </c>
-      <c r="C6">
-        <v>0.1221077129414796</v>
-      </c>
-      <c r="D6">
-        <v>0.08430825064197939</v>
-      </c>
-      <c r="E6">
-        <v>-1.136243876764809E-16</v>
-      </c>
-      <c r="F6">
-        <v>0.1983890379415846</v>
-      </c>
-      <c r="G6">
-        <v>0.4359508967545346</v>
-      </c>
-      <c r="H6">
-        <v>0.240475201882395</v>
-      </c>
-      <c r="I6">
-        <v>-0.09735498951579896</v>
-      </c>
-      <c r="J6">
-        <v>0.3736523971335712</v>
-      </c>
-      <c r="K6">
-        <v>0.204082072627186</v>
-      </c>
-      <c r="L6">
-        <v>0.6899764651111308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>-0.1583188690406637</v>
+      </c>
+      <c r="C7">
+        <v>0.1695829405851215</v>
+      </c>
+      <c r="D7">
+        <v>-0.3434504091086185</v>
+      </c>
+      <c r="E7">
+        <v>-0.1110065101530818</v>
+      </c>
+      <c r="F7">
+        <v>-0.07838054494457634</v>
+      </c>
+      <c r="G7">
+        <v>0.06127672928151766</v>
+      </c>
+      <c r="H7">
+        <v>-0.6285609009799322</v>
+      </c>
+      <c r="I7">
+        <v>0.3396773803206385</v>
+      </c>
+      <c r="J7">
+        <v>0.4537958055259168</v>
+      </c>
+      <c r="K7">
+        <v>-0.2993286216227631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>-0.158318869040664</v>
-      </c>
-      <c r="C7">
-        <v>0.169582940585124</v>
-      </c>
-      <c r="D7">
-        <v>-0.3434504091086195</v>
-      </c>
-      <c r="E7">
-        <v>-1.387778780781446E-16</v>
-      </c>
-      <c r="F7">
-        <v>-0.1110065101530806</v>
-      </c>
-      <c r="G7">
-        <v>-0.07838054494458048</v>
-      </c>
-      <c r="H7">
-        <v>0.06127672928151845</v>
-      </c>
-      <c r="I7">
-        <v>-0.6285609009799303</v>
-      </c>
-      <c r="J7">
-        <v>0.3396773803206386</v>
-      </c>
-      <c r="K7">
-        <v>0.4537958055259188</v>
-      </c>
-      <c r="L7">
-        <v>-0.2993286216227615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>-0.06429278254607164</v>
+      </c>
+      <c r="C8">
+        <v>-0.3185590640916272</v>
+      </c>
+      <c r="D8">
+        <v>0.1116496302235695</v>
+      </c>
+      <c r="E8">
+        <v>-0.2272683518870964</v>
+      </c>
+      <c r="F8">
+        <v>0.8127408215298177</v>
+      </c>
+      <c r="G8">
+        <v>-0.248329197896814</v>
+      </c>
+      <c r="H8">
+        <v>-0.1637132100860522</v>
+      </c>
+      <c r="I8">
+        <v>-0.1061984524784462</v>
+      </c>
+      <c r="J8">
+        <v>-0.0217330670645197</v>
+      </c>
+      <c r="K8">
+        <v>-0.2636333266498153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>-0.06429278254607196</v>
-      </c>
-      <c r="C8">
-        <v>-0.3185590640916262</v>
-      </c>
-      <c r="D8">
-        <v>0.1116496302235679</v>
-      </c>
-      <c r="E8">
-        <v>-5.551115123125783E-17</v>
-      </c>
-      <c r="F8">
-        <v>-0.2272683518870967</v>
-      </c>
-      <c r="G8">
-        <v>0.8127408215298163</v>
-      </c>
-      <c r="H8">
-        <v>-0.248329197896814</v>
-      </c>
-      <c r="I8">
-        <v>-0.1637132100860562</v>
-      </c>
-      <c r="J8">
-        <v>-0.1061984524784449</v>
-      </c>
-      <c r="K8">
-        <v>-0.02173306706451754</v>
-      </c>
-      <c r="L8">
-        <v>-0.2636333266498174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>0.446639564744512</v>
+      </c>
+      <c r="C9">
+        <v>-0.0223265809808712</v>
+      </c>
+      <c r="D9">
+        <v>0.1328870475471715</v>
+      </c>
+      <c r="E9">
+        <v>0.2142334972311051</v>
+      </c>
+      <c r="F9">
+        <v>-0.05325140886390106</v>
+      </c>
+      <c r="G9">
+        <v>-0.1712638054230469</v>
+      </c>
+      <c r="H9">
+        <v>-0.1010478798962673</v>
+      </c>
+      <c r="I9">
+        <v>-0.5549680639291132</v>
+      </c>
+      <c r="J9">
+        <v>0.6209765824736551</v>
+      </c>
+      <c r="K9">
+        <v>0.02192073578761189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>0.4466395647445131</v>
-      </c>
-      <c r="C9">
-        <v>-0.02232658098087342</v>
-      </c>
-      <c r="D9">
-        <v>0.1328870475471725</v>
-      </c>
-      <c r="E9">
-        <v>1.110223024625157E-16</v>
-      </c>
-      <c r="F9">
-        <v>0.2142334972311055</v>
-      </c>
-      <c r="G9">
-        <v>-0.05325140886390239</v>
-      </c>
-      <c r="H9">
-        <v>-0.1712638054230467</v>
-      </c>
-      <c r="I9">
-        <v>-0.1010478798962697</v>
-      </c>
-      <c r="J9">
-        <v>-0.5549680639291149</v>
-      </c>
-      <c r="K9">
-        <v>0.6209765824736529</v>
-      </c>
-      <c r="L9">
-        <v>0.02192073578761386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>-0.3205229609580266</v>
+      </c>
+      <c r="C10">
+        <v>-0.1374156169637549</v>
+      </c>
+      <c r="D10">
+        <v>-0.0605103403920258</v>
+      </c>
+      <c r="E10">
+        <v>-0.1045772455810144</v>
+      </c>
+      <c r="F10">
+        <v>-0.1709034402309196</v>
+      </c>
+      <c r="G10">
+        <v>-0.2580087404205884</v>
+      </c>
+      <c r="H10">
+        <v>-0.5389768434809961</v>
+      </c>
+      <c r="I10">
+        <v>-0.3694297546284663</v>
+      </c>
+      <c r="J10">
+        <v>-0.2477224580584959</v>
+      </c>
+      <c r="K10">
+        <v>0.5288353094009386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>-0.3205229609580298</v>
-      </c>
-      <c r="C10">
-        <v>-0.1374156169637544</v>
-      </c>
-      <c r="D10">
-        <v>-0.06051034039202673</v>
-      </c>
-      <c r="E10">
-        <v>3.33066907387547E-16</v>
-      </c>
-      <c r="F10">
-        <v>-0.1045772455810154</v>
-      </c>
-      <c r="G10">
-        <v>-0.1709034402309196</v>
-      </c>
-      <c r="H10">
-        <v>-0.2580087404205885</v>
-      </c>
-      <c r="I10">
-        <v>-0.5389768434809951</v>
-      </c>
-      <c r="J10">
-        <v>-0.3694297546284649</v>
-      </c>
-      <c r="K10">
-        <v>-0.2477224580584977</v>
-      </c>
-      <c r="L10">
-        <v>0.5288353094009384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>0.3467950703468007</v>
+      </c>
+      <c r="C11">
+        <v>0.1019052537557686</v>
+      </c>
+      <c r="D11">
+        <v>-0.6325560263936119</v>
+      </c>
+      <c r="E11">
+        <v>0.1865291135715823</v>
+      </c>
+      <c r="F11">
+        <v>0.08283326151707872</v>
+      </c>
+      <c r="G11">
+        <v>-0.5964706161959142</v>
+      </c>
+      <c r="H11">
+        <v>0.1055443869669743</v>
+      </c>
+      <c r="I11">
+        <v>0.1541021168238433</v>
+      </c>
+      <c r="J11">
+        <v>-0.1796624161793734</v>
+      </c>
+      <c r="K11">
+        <v>0.06800038740719903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>0.3467950703468006</v>
-      </c>
-      <c r="C11">
-        <v>0.1019052537557609</v>
-      </c>
-      <c r="D11">
-        <v>-0.6325560263936159</v>
-      </c>
-      <c r="E11">
-        <v>-3.33066907387547E-16</v>
-      </c>
-      <c r="F11">
-        <v>0.1865291135715891</v>
-      </c>
-      <c r="G11">
-        <v>0.08283326151707909</v>
-      </c>
-      <c r="H11">
-        <v>-0.5964706161959101</v>
-      </c>
-      <c r="I11">
-        <v>0.105544386966973</v>
-      </c>
-      <c r="J11">
-        <v>0.1541021168238426</v>
-      </c>
-      <c r="K11">
-        <v>-0.1796624161793739</v>
-      </c>
-      <c r="L11">
-        <v>0.06800038740719791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B12">
-        <v>-0.1613654275438668</v>
+        <v>-0.1613654275438606</v>
       </c>
       <c r="C12">
-        <v>-0.6128593696917003</v>
+        <v>-0.6128593696917</v>
       </c>
       <c r="D12">
-        <v>-0.270057126345387</v>
+        <v>-0.270057126345393</v>
       </c>
       <c r="E12">
-        <v>3.33066907387547E-16</v>
+        <v>0.6598601020728756</v>
       </c>
       <c r="F12">
-        <v>0.6598601020728734</v>
+        <v>0.006777934410392338</v>
       </c>
       <c r="G12">
-        <v>0.006777934410391801</v>
+        <v>0.2762349333842331</v>
       </c>
       <c r="H12">
-        <v>0.2762349333842397</v>
+        <v>-0.05047834306234308</v>
       </c>
       <c r="I12">
-        <v>-0.05047834306234433</v>
+        <v>-0.02337597374669049</v>
       </c>
       <c r="J12">
-        <v>-0.02337597374669214</v>
+        <v>-0.02464402152348638</v>
       </c>
       <c r="K12">
-        <v>-0.02464402152348433</v>
-      </c>
-      <c r="L12">
-        <v>-0.09982424603613545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>-1.97574114378429E-16</v>
-      </c>
-      <c r="C13">
-        <v>-3.689917922214076E-16</v>
-      </c>
-      <c r="D13">
-        <v>1.379529899106328E-16</v>
-      </c>
-      <c r="E13">
-        <v>-1</v>
-      </c>
-      <c r="F13">
-        <v>1.942691207775283E-16</v>
-      </c>
-      <c r="G13">
-        <v>1.875732420061039E-17</v>
-      </c>
-      <c r="H13">
-        <v>1.628723996536632E-16</v>
-      </c>
-      <c r="I13">
-        <v>-9.606271239853169E-17</v>
-      </c>
-      <c r="J13">
-        <v>-2.021878189382207E-16</v>
-      </c>
-      <c r="K13">
-        <v>-7.537150465909354E-17</v>
-      </c>
-      <c r="L13">
-        <v>8.224988776505241E-17</v>
+        <v>-0.09982424603613449</v>
       </c>
     </row>
   </sheetData>
